--- a/natmiOut/OldD4/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H2">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I2">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J2">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>11.15349569317919</v>
+        <v>13.63614208264534</v>
       </c>
       <c r="R2">
-        <v>11.15349569317919</v>
+        <v>122.725278743808</v>
       </c>
       <c r="S2">
-        <v>0.002277882032060226</v>
+        <v>0.002270152386121829</v>
       </c>
       <c r="T2">
-        <v>0.002277882032060226</v>
+        <v>0.003686772552152797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H3">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I3">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J3">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>12.49154713525335</v>
+        <v>14.59263614048</v>
       </c>
       <c r="R3">
-        <v>12.49154713525335</v>
+        <v>131.33372526432</v>
       </c>
       <c r="S3">
-        <v>0.002551152710753088</v>
+        <v>0.002429390039597752</v>
       </c>
       <c r="T3">
-        <v>0.002551152710753088</v>
+        <v>0.003945377663286839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H4">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I4">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J4">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>6.426563229470669</v>
+        <v>7.327439335637333</v>
       </c>
       <c r="R4">
-        <v>6.426563229470669</v>
+        <v>65.946954020736</v>
       </c>
       <c r="S4">
-        <v>0.001312499086475864</v>
+        <v>0.001219876105070113</v>
       </c>
       <c r="T4">
-        <v>0.001312499086475864</v>
+        <v>0.001981103017001694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H5">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I5">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J5">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>7.645803080944352</v>
+        <v>8.371647620938669</v>
       </c>
       <c r="R5">
-        <v>7.645803080944352</v>
+        <v>75.34482858844801</v>
       </c>
       <c r="S5">
-        <v>0.001561504835600966</v>
+        <v>0.001393716471070842</v>
       </c>
       <c r="T5">
-        <v>0.001561504835600966</v>
+        <v>0.002263423223233564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H6">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I6">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J6">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>15.08703651800631</v>
+        <v>16.698129357648</v>
       </c>
       <c r="R6">
-        <v>15.08703651800631</v>
+        <v>100.188776145888</v>
       </c>
       <c r="S6">
-        <v>0.003081230346681312</v>
+        <v>0.002779913701051858</v>
       </c>
       <c r="T6">
-        <v>0.003081230346681312</v>
+        <v>0.003009756699754712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H7">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I7">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J7">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>22.90629371447262</v>
+        <v>32.31212060077156</v>
       </c>
       <c r="R7">
-        <v>22.90629371447262</v>
+        <v>290.8090854069441</v>
       </c>
       <c r="S7">
-        <v>0.004678159772384194</v>
+        <v>0.005379339496312122</v>
       </c>
       <c r="T7">
-        <v>0.004678159772384194</v>
+        <v>0.008736154156415585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H8">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I8">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J8">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>25.65429310232084</v>
+        <v>34.57862319097333</v>
       </c>
       <c r="R8">
-        <v>25.65429310232084</v>
+        <v>311.20760871876</v>
       </c>
       <c r="S8">
-        <v>0.005239384575969314</v>
+        <v>0.00575666808618112</v>
       </c>
       <c r="T8">
-        <v>0.005239384575969314</v>
+        <v>0.009348943278756417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H9">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I9">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J9">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>13.19844010868349</v>
+        <v>17.36305635956089</v>
       </c>
       <c r="R9">
-        <v>13.19844010868349</v>
+        <v>156.267507236048</v>
       </c>
       <c r="S9">
-        <v>0.002695521691300672</v>
+        <v>0.002890611111715428</v>
       </c>
       <c r="T9">
-        <v>0.002695521691300672</v>
+        <v>0.00469440984260358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H10">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I10">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J10">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>15.70243230220946</v>
+        <v>19.83740605777378</v>
       </c>
       <c r="R10">
-        <v>15.70243230220946</v>
+        <v>178.536654519964</v>
       </c>
       <c r="S10">
-        <v>0.003206912826686143</v>
+        <v>0.003302542201715345</v>
       </c>
       <c r="T10">
-        <v>0.003206912826686143</v>
+        <v>0.005363394112238674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H11">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I11">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J11">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>30.98473333107285</v>
+        <v>39.567787306814</v>
       </c>
       <c r="R11">
-        <v>30.98473333107285</v>
+        <v>237.406723840884</v>
       </c>
       <c r="S11">
-        <v>0.006328022107561368</v>
+        <v>0.006587266854783265</v>
       </c>
       <c r="T11">
-        <v>0.006328022107561368</v>
+        <v>0.007131901447787511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.082693175809901</v>
+        <v>9.4422175</v>
       </c>
       <c r="H12">
-        <v>8.082693175809901</v>
+        <v>18.884435</v>
       </c>
       <c r="I12">
-        <v>0.9670677300145268</v>
+        <v>0.9659905235463803</v>
       </c>
       <c r="J12">
-        <v>0.9670677300145268</v>
+        <v>0.9498387640067686</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>1000.177735751593</v>
+        <v>1305.094666368393</v>
       </c>
       <c r="R12">
-        <v>1000.177735751593</v>
+        <v>7830.56799821036</v>
       </c>
       <c r="S12">
-        <v>0.2042666223943133</v>
+        <v>0.2172728732961634</v>
       </c>
       <c r="T12">
-        <v>0.2042666223943133</v>
+        <v>0.2352369736624013</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.082693175809901</v>
+        <v>9.4422175</v>
       </c>
       <c r="H13">
-        <v>8.082693175809901</v>
+        <v>18.884435</v>
       </c>
       <c r="I13">
-        <v>0.9670677300145268</v>
+        <v>0.9659905235463803</v>
       </c>
       <c r="J13">
-        <v>0.9670677300145268</v>
+        <v>0.9498387640067686</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>1120.166060351144</v>
+        <v>1396.639275226775</v>
       </c>
       <c r="R13">
-        <v>1120.166060351144</v>
+        <v>8379.835651360649</v>
       </c>
       <c r="S13">
-        <v>0.2287718767272192</v>
+        <v>0.2325132698083804</v>
       </c>
       <c r="T13">
-        <v>0.2287718767272192</v>
+        <v>0.2517374446994006</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.082693175809901</v>
+        <v>9.4422175</v>
       </c>
       <c r="H14">
-        <v>8.082693175809901</v>
+        <v>18.884435</v>
       </c>
       <c r="I14">
-        <v>0.9670677300145268</v>
+        <v>0.9659905235463803</v>
       </c>
       <c r="J14">
-        <v>0.9670677300145268</v>
+        <v>0.9498387640067686</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>576.2951487440135</v>
+        <v>701.2982071556033</v>
       </c>
       <c r="R14">
-        <v>576.2951487440135</v>
+        <v>4207.78924293362</v>
       </c>
       <c r="S14">
-        <v>0.1176969445812627</v>
+        <v>0.1167525087893778</v>
       </c>
       <c r="T14">
-        <v>0.1176969445812627</v>
+        <v>0.1264055950402489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.082693175809901</v>
+        <v>9.4422175</v>
       </c>
       <c r="H15">
-        <v>8.082693175809901</v>
+        <v>18.884435</v>
       </c>
       <c r="I15">
-        <v>0.9670677300145268</v>
+        <v>0.9659905235463803</v>
       </c>
       <c r="J15">
-        <v>0.9670677300145268</v>
+        <v>0.9498387640067686</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>685.6291716845345</v>
+        <v>801.2378129080893</v>
       </c>
       <c r="R15">
-        <v>685.6291716845345</v>
+        <v>4807.426877448535</v>
       </c>
       <c r="S15">
-        <v>0.1400262674411242</v>
+        <v>0.1333905089724228</v>
       </c>
       <c r="T15">
-        <v>0.1400262674411242</v>
+        <v>0.1444192234857982</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.082693175809901</v>
+        <v>9.4422175</v>
       </c>
       <c r="H16">
-        <v>8.082693175809901</v>
+        <v>18.884435</v>
       </c>
       <c r="I16">
-        <v>0.9670677300145268</v>
+        <v>0.9659905235463803</v>
       </c>
       <c r="J16">
-        <v>0.9670677300145268</v>
+        <v>0.9498387640067686</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>1352.913780475937</v>
+        <v>1598.152866911771</v>
       </c>
       <c r="R16">
-        <v>1352.913780475937</v>
+        <v>6392.611467647085</v>
       </c>
       <c r="S16">
-        <v>0.2763060188706075</v>
+        <v>0.2660613626800359</v>
       </c>
       <c r="T16">
-        <v>0.2763060188706075</v>
+        <v>0.1920395271189196</v>
       </c>
     </row>
   </sheetData>
